--- a/需求书/遇到的问题.xlsx
+++ b/需求书/遇到的问题.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>序号</t>
   </si>
@@ -43,6 +43,24 @@
   </si>
   <si>
     <t>2018年1月19日</t>
+  </si>
+  <si>
+    <t>在个人设置页面，我的关键字，和我的收藏感觉很无用</t>
+  </si>
+  <si>
+    <t>在详情页面中Alexa排名指app排名还是公司排名，如果是app排名，一个公司是否会有多个app，并且这个指数指的是IOS和Android的总和吗？</t>
+  </si>
+  <si>
+    <t>2018年1月22日</t>
+  </si>
+  <si>
+    <t>后台数据没有更多关于App内容的描述</t>
+  </si>
+  <si>
+    <t>在公司详情页面的收藏，个人觉得不好，删除了</t>
+  </si>
+  <si>
+    <t>2018年1月23日</t>
   </si>
 </sst>
 </file>
@@ -554,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,34 +620,58 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+    <row r="4" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>

--- a/需求书/遇到的问题.xlsx
+++ b/需求书/遇到的问题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>序号</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>2018年1月23日</t>
+  </si>
+  <si>
+    <t>我的关键字</t>
   </si>
 </sst>
 </file>
@@ -293,15 +296,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F36" totalsRowShown="0" headerRowDxfId="7" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F36" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F36"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="序号" dataDxfId="6"/>
-    <tableColumn id="2" name="问题描述" dataDxfId="5"/>
-    <tableColumn id="3" name="提问时间" dataDxfId="4"/>
-    <tableColumn id="4" name="回答" dataDxfId="3"/>
-    <tableColumn id="5" name="回答时间" dataDxfId="2"/>
-    <tableColumn id="6" name="补充说明" dataDxfId="1"/>
+    <tableColumn id="1" name="序号" dataDxfId="5"/>
+    <tableColumn id="2" name="问题描述" dataDxfId="4"/>
+    <tableColumn id="3" name="提问时间" dataDxfId="3"/>
+    <tableColumn id="4" name="回答" dataDxfId="2"/>
+    <tableColumn id="5" name="回答时间" dataDxfId="1"/>
+    <tableColumn id="6" name="补充说明" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -572,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,8 +680,12 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>

--- a/需求书/遇到的问题.xlsx
+++ b/需求书/遇到的问题.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>序号</t>
   </si>
@@ -63,14 +63,23 @@
     <t>2018年1月23日</t>
   </si>
   <si>
-    <t>我的关键字</t>
+    <t>我的关键字感觉这个设计不知道应该做些什么</t>
+  </si>
+  <si>
+    <t>2018年1月29日</t>
+  </si>
+  <si>
+    <t>在推荐页面中不再推荐，这个设计不合理，如果选了，以后这个公司就不再出现在推荐列表中 ，未来该公司发生变化，没法从新进入投资人的视野中</t>
+  </si>
+  <si>
+    <t>表示公司网站被中国或全球搜索的次数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +99,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -113,10 +128,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -292,12 +310,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>857096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9372600" y="3758229"/>
+          <a:ext cx="3390900" cy="804092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F36" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F44" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F44"/>
   <tableColumns count="6">
     <tableColumn id="1" name="序号" dataDxfId="5"/>
     <tableColumn id="2" name="问题描述" dataDxfId="4"/>
@@ -573,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +703,9 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
@@ -679,22 +737,30 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+    <row r="8" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -922,6 +988,70 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
